--- a/static/datasets/sensors1.xlsx
+++ b/static/datasets/sensors1.xlsx
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +886,178 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>518.66999999999996</v>
+      </c>
+      <c r="G6">
+        <v>643.05999999999995</v>
+      </c>
+      <c r="H6">
+        <v>1599.57</v>
+      </c>
+      <c r="I6">
+        <v>1418.51</v>
+      </c>
+      <c r="J6">
+        <v>14.62</v>
+      </c>
+      <c r="K6">
+        <v>21.61</v>
+      </c>
+      <c r="L6">
+        <v>552.11</v>
+      </c>
+      <c r="M6">
+        <v>2388.23</v>
+      </c>
+      <c r="N6">
+        <v>9061.2099999999991</v>
+      </c>
+      <c r="O6">
+        <v>1.3</v>
+      </c>
+      <c r="P6">
+        <v>47.81</v>
+      </c>
+      <c r="Q6">
+        <v>520.37</v>
+      </c>
+      <c r="R6">
+        <v>2388.1999999999998</v>
+      </c>
+      <c r="S6">
+        <v>8139.7</v>
+      </c>
+      <c r="T6">
+        <v>8.4794</v>
+      </c>
+      <c r="U6">
+        <v>0.03</v>
+      </c>
+      <c r="V6">
+        <v>393</v>
+      </c>
+      <c r="W6">
+        <v>2388</v>
+      </c>
+      <c r="X6">
+        <v>100</v>
+      </c>
+      <c r="Y6">
+        <v>38.54</v>
+      </c>
+      <c r="Z6">
+        <v>23.2455</v>
+      </c>
+      <c r="AA6">
+        <v>29</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>154</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D7">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>518.66999999999996</v>
+      </c>
+      <c r="G7">
+        <v>643.49</v>
+      </c>
+      <c r="H7">
+        <v>1601.95</v>
+      </c>
+      <c r="I7">
+        <v>1423.58</v>
+      </c>
+      <c r="J7">
+        <v>14.62</v>
+      </c>
+      <c r="K7">
+        <v>21.61</v>
+      </c>
+      <c r="L7">
+        <v>551.86</v>
+      </c>
+      <c r="M7">
+        <v>2388.27</v>
+      </c>
+      <c r="N7">
+        <v>9074.92</v>
+      </c>
+      <c r="O7">
+        <v>1.3</v>
+      </c>
+      <c r="P7">
+        <v>48.08</v>
+      </c>
+      <c r="Q7">
+        <v>519.38</v>
+      </c>
+      <c r="R7">
+        <v>2388.2399999999998</v>
+      </c>
+      <c r="S7">
+        <v>8148.51</v>
+      </c>
+      <c r="T7">
+        <v>8.5105000000000004</v>
+      </c>
+      <c r="U7">
+        <v>0.03</v>
+      </c>
+      <c r="V7">
+        <v>399</v>
+      </c>
+      <c r="W7">
+        <v>2388</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>38.29</v>
+      </c>
+      <c r="Z7">
+        <v>23.0154</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
